--- a/spreadsheets/UseCase_PIsClones.xlsx
+++ b/spreadsheets/UseCase_PIsClones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATI\STIIMA-ITIA\PROGETTI\ErasmusPlus_VLFT\DEVS_VLFT\Usecase\Cosberg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\difactory\repository\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67AB662-C0BD-439F-AC75-E38474480D6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0A454-61FB-4CF4-B231-2011C71EBC22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="484" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="484" activeTab="1" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="16" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t/>
   </si>
   <si>
-    <t>http://www.ontoeng.com/factory#MachineTool</t>
-  </si>
-  <si>
     <t>PIs_1</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly</t>
+  </si>
+  <si>
+    <t>https://w3id.org/ontoeng/factory#MachineTool</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8466CCB2-1EC2-4D46-B8B6-6A373A69743B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B1" s="14" t="str">
         <f>CONCATENATE(Context!D1,B3,Context!E1,B4,Context!F1,B5,"""},",Context!G1,Assets!AU201,Context!H1,Assets!AV201,"]}")</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["PIs_1","PIs_1.PI_Machine_Static","PIs_2","PIs_2.PI_Machine_Static","PIs_3","PIs_3.PI_Machine_Static"], "assets": [{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["PIs_1","PIs_1.PI_Machine_Static","PIs_2","PIs_2.PI_Machine_Static","PIs_3","PIs_3.PI_Machine_Static"], "assets": [{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}]}</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1118,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBE1175-FFEC-4699-8890-6AAD58990405}">
   <dimension ref="A1:AX201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:A54"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:A54"/>
@@ -1292,18 +1292,18 @@
     </row>
     <row r="2" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="64" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="44">
         <v>1</v>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="AD2" s="42" t="str">
         <f>IF(D2&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D2,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineTool"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineTool"</v>
       </c>
       <c r="AE2" s="42" t="str">
         <f>IF(E2&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E2,""""),"")</f>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="AT2" s="42" t="str">
         <f>CONCATENATE(AB2,AC2,AD2,AE2,AF2,AG2,AH2,AI2,AJ2,AK2,AL2,AM2,AN2,AO2,AP2,AQ2,AR2,AS2)</f>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AU2" s="11" t="str">
         <f>IF(B2=1,CONCATENATE(IF(AU1&lt;&gt;"",CONCATENATE(AU1,","),""),"""",A2,""""),AU1)</f>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="AV2" s="6" t="str">
         <f>IF(A2&lt;&gt;"",CONCATENATE(IF(AV1&lt;&gt;"",CONCATENATE(AV1,","),""),AT2),AV1)</f>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AW2" s="7" t="s">
         <v>1</v>
@@ -1426,18 +1426,18 @@
     </row>
     <row r="3" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="44">
         <v>1</v>
@@ -1455,10 +1455,10 @@
       <c r="L3" s="43"/>
       <c r="M3" s="53"/>
       <c r="N3" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="AV3" s="6" t="str">
         <f t="shared" ref="AV3:AV66" si="19">IF(A3&lt;&gt;"",CONCATENATE(IF(AV2&lt;&gt;"",CONCATENATE(AV2,","),""),AT3),AV2)</f>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"}</v>
       </c>
       <c r="AW3" s="7" t="s">
         <v>1</v>
@@ -1564,18 +1564,18 @@
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="64" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="44">
         <v>1</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="AD4" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineTool"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineTool"</v>
       </c>
       <c r="AE4" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="AT4" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]}</v>
+        <v>{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]}</v>
       </c>
       <c r="AU4" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="AV4" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]}</v>
       </c>
       <c r="AW4" s="7" t="s">
         <v>1</v>
@@ -1698,18 +1698,18 @@
     </row>
     <row r="5" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="44">
         <v>1</v>
@@ -1727,10 +1727,10 @@
       <c r="L5" s="43"/>
       <c r="M5" s="53"/>
       <c r="N5" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="AV5" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"}</v>
       </c>
       <c r="AW5" s="7" t="s">
         <v>1</v>
@@ -1836,18 +1836,18 @@
     </row>
     <row r="6" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="64" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="44">
         <v>1</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="AD6" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineTool"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineTool"</v>
       </c>
       <c r="AE6" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AT6" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]}</v>
+        <v>{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]}</v>
       </c>
       <c r="AU6" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="AV6" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]}</v>
       </c>
       <c r="AW6" s="7" t="s">
         <v>1</v>
@@ -1970,18 +1970,18 @@
     </row>
     <row r="7" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="44">
         <v>1</v>
@@ -1999,10 +1999,10 @@
       <c r="L7" s="43"/>
       <c r="M7" s="53"/>
       <c r="N7" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="AV7" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW7" s="7" t="s">
         <v>1</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="AV8" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW8" s="7" t="s">
         <v>1</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="AV9" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW9" s="7" t="s">
         <v>1</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="AV10" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW10" s="7" t="s">
         <v>1</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="AV11" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW11" s="7" t="s">
         <v>1</v>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="AV12" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW12" s="7" t="s">
         <v>1</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="AV13" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW13" s="7" t="s">
         <v>1</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AV14" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW14" s="7" t="s">
         <v>1</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AV15" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW15" s="7" t="s">
         <v>1</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="AV16" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW16" s="7" t="s">
         <v>1</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="AV17" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW17" s="7" t="s">
         <v>1</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="AV18" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW18" s="7" t="s">
         <v>1</v>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="AV19" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW19" s="7" t="s">
         <v>1</v>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="AV20" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW20" s="7" t="s">
         <v>1</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="AV21" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW21" s="7" t="s">
         <v>1</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AV22" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW22" s="7" t="s">
         <v>1</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="AV23" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW23" s="7" t="s">
         <v>1</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AV24" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW24" s="7" t="s">
         <v>1</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="AV25" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW25" s="7" t="s">
         <v>1</v>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AV26" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW26" s="7" t="s">
         <v>1</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="AV27" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW27" s="7" t="s">
         <v>1</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="AV28" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW28" s="7" t="s">
         <v>1</v>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="AV29" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW29" s="7" t="s">
         <v>1</v>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="AV30" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW30" s="7" t="s">
         <v>1</v>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="AV31" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW31" s="7" t="s">
         <v>1</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="AV32" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW32" s="7" t="s">
         <v>1</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="AV33" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW33" s="7" t="s">
         <v>1</v>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="AV34" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW34" s="7" t="s">
         <v>1</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="AV35" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW35" s="7" t="s">
         <v>1</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="AV36" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW36" s="7" t="s">
         <v>1</v>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="AV37" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW37" s="7" t="s">
         <v>1</v>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="AV38" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW38" s="7" t="s">
         <v>1</v>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="AV39" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW39" s="7" t="s">
         <v>1</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="AV40" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW40" s="7" t="s">
         <v>1</v>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="AV41" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW41" s="7" t="s">
         <v>1</v>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="AV42" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW42" s="7" t="s">
         <v>1</v>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="AV43" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW43" s="7" t="s">
         <v>1</v>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="AV44" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW44" s="7" t="s">
         <v>1</v>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="AV45" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW45" s="7" t="s">
         <v>1</v>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="AV46" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW46" s="7" t="s">
         <v>1</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="AV47" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW47" s="7" t="s">
         <v>1</v>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="AV48" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW48" s="7" t="s">
         <v>1</v>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="AV49" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW49" s="7" t="s">
         <v>1</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="AV50" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW50" s="7" t="s">
         <v>1</v>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="AV51" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW51" s="7" t="s">
         <v>1</v>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="AV52" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW52" s="7" t="s">
         <v>1</v>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AV53" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW53" s="7" t="s">
         <v>1</v>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="AV54" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW54" s="7" t="s">
         <v>1</v>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="AV55" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW55" s="7" t="s">
         <v>1</v>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="AV56" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW56" s="7" t="s">
         <v>1</v>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="AV57" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW57" s="7" t="s">
         <v>1</v>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="AV58" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW58" s="7" t="s">
         <v>1</v>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="AV59" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW59" s="7" t="s">
         <v>1</v>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="AV60" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW60" s="7" t="s">
         <v>1</v>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="AV61" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW61" s="7" t="s">
         <v>1</v>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="AV62" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW62" s="7" t="s">
         <v>1</v>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="AV63" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW63" s="7" t="s">
         <v>1</v>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="AV64" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW64" s="7" t="s">
         <v>1</v>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="AV65" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW65" s="7" t="s">
         <v>1</v>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="AV66" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW66" s="7" t="s">
         <v>1</v>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="AV67" s="6" t="str">
         <f t="shared" ref="AV67:AV130" si="39">IF(A67&lt;&gt;"",CONCATENATE(IF(AV66&lt;&gt;"",CONCATENATE(AV66,","),""),AT67),AV66)</f>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW67" s="7" t="s">
         <v>1</v>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="AV68" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW68" s="7" t="s">
         <v>1</v>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="AV69" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW69" s="7" t="s">
         <v>1</v>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="AV70" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW70" s="7" t="s">
         <v>1</v>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="AV71" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW71" s="7" t="s">
         <v>1</v>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="AV72" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW72" s="7" t="s">
         <v>1</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="AV73" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW73" s="7" t="s">
         <v>1</v>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="AV74" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW74" s="7" t="s">
         <v>1</v>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="AV75" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW75" s="7" t="s">
         <v>1</v>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="AV76" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW76" s="7" t="s">
         <v>1</v>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="AV77" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW77" s="7" t="s">
         <v>1</v>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="AV78" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW78" s="7" t="s">
         <v>1</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="AV79" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW79" s="7" t="s">
         <v>1</v>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="AV80" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW80" s="7" t="s">
         <v>1</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="AV81" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW81" s="7" t="s">
         <v>1</v>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="AV82" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW82" s="7" t="s">
         <v>1</v>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="AV83" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW83" s="7" t="s">
         <v>1</v>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="AV84" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW84" s="7" t="s">
         <v>1</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="AV85" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW85" s="7" t="s">
         <v>1</v>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="AV86" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW86" s="7" t="s">
         <v>1</v>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="AV87" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW87" s="7" t="s">
         <v>1</v>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="AV88" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW88" s="7" t="s">
         <v>1</v>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="AV89" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW89" s="7" t="s">
         <v>1</v>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="AV90" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW90" s="7" t="s">
         <v>1</v>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="AV91" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW91" s="7" t="s">
         <v>1</v>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="AV92" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW92" s="7" t="s">
         <v>1</v>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="AV93" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW93" s="7" t="s">
         <v>1</v>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="AV94" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW94" s="7" t="s">
         <v>1</v>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="AV95" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW95" s="7" t="s">
         <v>1</v>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="AV96" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW96" s="7" t="s">
         <v>1</v>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="AV97" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW97" s="7" t="s">
         <v>1</v>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="AV98" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW98" s="7" t="s">
         <v>1</v>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="AV99" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW99" s="7" t="s">
         <v>1</v>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="AV100" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW100" s="7" t="s">
         <v>1</v>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="AV101" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW101" s="7" t="s">
         <v>1</v>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="AV102" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW102" s="7" t="s">
         <v>1</v>
@@ -13146,7 +13146,7 @@
       </c>
       <c r="AV103" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW103" s="7" t="s">
         <v>1</v>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="AV104" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW104" s="7" t="s">
         <v>1</v>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="AV105" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW105" s="7" t="s">
         <v>1</v>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="AV106" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW106" s="7" t="s">
         <v>1</v>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="AV107" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW107" s="7" t="s">
         <v>1</v>
@@ -13721,7 +13721,7 @@
       </c>
       <c r="AV108" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW108" s="7" t="s">
         <v>1</v>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="AV109" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW109" s="7" t="s">
         <v>1</v>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="AV110" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW110" s="7" t="s">
         <v>1</v>
@@ -14066,7 +14066,7 @@
       </c>
       <c r="AV111" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW111" s="7" t="s">
         <v>1</v>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="AV112" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW112" s="7" t="s">
         <v>1</v>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="AV113" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW113" s="7" t="s">
         <v>1</v>
@@ -14411,7 +14411,7 @@
       </c>
       <c r="AV114" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW114" s="7" t="s">
         <v>1</v>
@@ -14526,7 +14526,7 @@
       </c>
       <c r="AV115" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW115" s="7" t="s">
         <v>1</v>
@@ -14641,7 +14641,7 @@
       </c>
       <c r="AV116" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW116" s="7" t="s">
         <v>1</v>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="AV117" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW117" s="7" t="s">
         <v>1</v>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="AV118" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW118" s="7" t="s">
         <v>1</v>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="AV119" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW119" s="7" t="s">
         <v>1</v>
@@ -15101,7 +15101,7 @@
       </c>
       <c r="AV120" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW120" s="7" t="s">
         <v>1</v>
@@ -15216,7 +15216,7 @@
       </c>
       <c r="AV121" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW121" s="7" t="s">
         <v>1</v>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="AV122" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW122" s="7" t="s">
         <v>1</v>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="AV123" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW123" s="7" t="s">
         <v>1</v>
@@ -15561,7 +15561,7 @@
       </c>
       <c r="AV124" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW124" s="7" t="s">
         <v>1</v>
@@ -15676,7 +15676,7 @@
       </c>
       <c r="AV125" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW125" s="7" t="s">
         <v>1</v>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="AV126" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW126" s="7" t="s">
         <v>1</v>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="AV127" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW127" s="7" t="s">
         <v>1</v>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="AV128" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW128" s="7" t="s">
         <v>1</v>
@@ -16136,7 +16136,7 @@
       </c>
       <c r="AV129" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW129" s="7" t="s">
         <v>1</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="AV130" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW130" s="7" t="s">
         <v>1</v>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="AV131" s="6" t="str">
         <f t="shared" ref="AV131:AV194" si="59">IF(A131&lt;&gt;"",CONCATENATE(IF(AV130&lt;&gt;"",CONCATENATE(AV130,","),""),AT131),AV130)</f>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW131" s="7" t="s">
         <v>1</v>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="AV132" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW132" s="7" t="s">
         <v>1</v>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="AV133" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW133" s="7" t="s">
         <v>1</v>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="AV134" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW134" s="7" t="s">
         <v>1</v>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="AV135" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW135" s="7" t="s">
         <v>1</v>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="AV136" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW136" s="7" t="s">
         <v>1</v>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="AV137" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW137" s="7" t="s">
         <v>1</v>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="AV138" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW138" s="7" t="s">
         <v>1</v>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="AV139" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW139" s="7" t="s">
         <v>1</v>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="AV140" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW140" s="7" t="s">
         <v>1</v>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="AV141" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW141" s="7" t="s">
         <v>1</v>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="AV142" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW142" s="7" t="s">
         <v>1</v>
@@ -17746,7 +17746,7 @@
       </c>
       <c r="AV143" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW143" s="7" t="s">
         <v>1</v>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="AV144" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW144" s="7" t="s">
         <v>1</v>
@@ -17976,7 +17976,7 @@
       </c>
       <c r="AV145" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW145" s="7" t="s">
         <v>1</v>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="AV146" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW146" s="7" t="s">
         <v>1</v>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="AV147" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW147" s="7" t="s">
         <v>1</v>
@@ -18321,7 +18321,7 @@
       </c>
       <c r="AV148" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW148" s="7" t="s">
         <v>1</v>
@@ -18436,7 +18436,7 @@
       </c>
       <c r="AV149" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW149" s="7" t="s">
         <v>1</v>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="AV150" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW150" s="7" t="s">
         <v>1</v>
@@ -18666,7 +18666,7 @@
       </c>
       <c r="AV151" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW151" s="7" t="s">
         <v>1</v>
@@ -18781,7 +18781,7 @@
       </c>
       <c r="AV152" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW152" s="7" t="s">
         <v>1</v>
@@ -18896,7 +18896,7 @@
       </c>
       <c r="AV153" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW153" s="7" t="s">
         <v>1</v>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="AV154" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW154" s="7" t="s">
         <v>1</v>
@@ -19126,7 +19126,7 @@
       </c>
       <c r="AV155" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW155" s="7" t="s">
         <v>1</v>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="AV156" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW156" s="7" t="s">
         <v>1</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="AV157" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW157" s="7" t="s">
         <v>1</v>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="AV158" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW158" s="7" t="s">
         <v>1</v>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="AV159" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW159" s="7" t="s">
         <v>1</v>
@@ -19701,7 +19701,7 @@
       </c>
       <c r="AV160" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW160" s="7" t="s">
         <v>1</v>
@@ -19816,7 +19816,7 @@
       </c>
       <c r="AV161" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW161" s="7" t="s">
         <v>1</v>
@@ -19931,7 +19931,7 @@
       </c>
       <c r="AV162" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW162" s="7" t="s">
         <v>1</v>
@@ -20046,7 +20046,7 @@
       </c>
       <c r="AV163" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW163" s="7" t="s">
         <v>1</v>
@@ -20161,7 +20161,7 @@
       </c>
       <c r="AV164" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW164" s="7" t="s">
         <v>1</v>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="AV165" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW165" s="7" t="s">
         <v>1</v>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="AV166" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW166" s="7" t="s">
         <v>1</v>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="AV167" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW167" s="7" t="s">
         <v>1</v>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="AV168" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW168" s="7" t="s">
         <v>1</v>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="AV169" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW169" s="7" t="s">
         <v>1</v>
@@ -20851,7 +20851,7 @@
       </c>
       <c r="AV170" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW170" s="7" t="s">
         <v>1</v>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="AV171" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW171" s="7" t="s">
         <v>1</v>
@@ -21081,7 +21081,7 @@
       </c>
       <c r="AV172" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW172" s="7" t="s">
         <v>1</v>
@@ -21196,7 +21196,7 @@
       </c>
       <c r="AV173" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW173" s="7" t="s">
         <v>1</v>
@@ -21311,7 +21311,7 @@
       </c>
       <c r="AV174" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW174" s="7" t="s">
         <v>1</v>
@@ -21426,7 +21426,7 @@
       </c>
       <c r="AV175" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW175" s="7" t="s">
         <v>1</v>
@@ -21541,7 +21541,7 @@
       </c>
       <c r="AV176" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW176" s="7" t="s">
         <v>1</v>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="AV177" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW177" s="7" t="s">
         <v>1</v>
@@ -21771,7 +21771,7 @@
       </c>
       <c r="AV178" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW178" s="7" t="s">
         <v>1</v>
@@ -21886,7 +21886,7 @@
       </c>
       <c r="AV179" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW179" s="7" t="s">
         <v>1</v>
@@ -22001,7 +22001,7 @@
       </c>
       <c r="AV180" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW180" s="7" t="s">
         <v>1</v>
@@ -22116,7 +22116,7 @@
       </c>
       <c r="AV181" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW181" s="7" t="s">
         <v>1</v>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="AV182" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW182" s="7" t="s">
         <v>1</v>
@@ -22346,7 +22346,7 @@
       </c>
       <c r="AV183" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW183" s="7" t="s">
         <v>1</v>
@@ -22461,7 +22461,7 @@
       </c>
       <c r="AV184" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW184" s="7" t="s">
         <v>1</v>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="AV185" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW185" s="7" t="s">
         <v>1</v>
@@ -22691,7 +22691,7 @@
       </c>
       <c r="AV186" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW186" s="7" t="s">
         <v>1</v>
@@ -22806,7 +22806,7 @@
       </c>
       <c r="AV187" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW187" s="7" t="s">
         <v>1</v>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="AV188" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW188" s="7" t="s">
         <v>1</v>
@@ -23036,7 +23036,7 @@
       </c>
       <c r="AV189" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW189" s="7" t="s">
         <v>1</v>
@@ -23151,7 +23151,7 @@
       </c>
       <c r="AV190" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW190" s="7" t="s">
         <v>1</v>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="AV191" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW191" s="7" t="s">
         <v>1</v>
@@ -23381,7 +23381,7 @@
       </c>
       <c r="AV192" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW192" s="7" t="s">
         <v>1</v>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="AV193" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW193" s="7" t="s">
         <v>1</v>
@@ -23611,7 +23611,7 @@
       </c>
       <c r="AV194" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW194" s="7" t="s">
         <v>1</v>
@@ -23726,7 +23726,7 @@
       </c>
       <c r="AV195" s="6" t="str">
         <f t="shared" ref="AV195:AV201" si="79">IF(A195&lt;&gt;"",CONCATENATE(IF(AV194&lt;&gt;"",CONCATENATE(AV194,","),""),AT195),AV194)</f>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW195" s="7" t="s">
         <v>1</v>
@@ -23841,7 +23841,7 @@
       </c>
       <c r="AV196" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW196" s="7" t="s">
         <v>1</v>
@@ -23956,7 +23956,7 @@
       </c>
       <c r="AV197" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW197" s="7" t="s">
         <v>1</v>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="AV198" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW198" s="7" t="s">
         <v>1</v>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="AV199" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW199" s="7" t="s">
         <v>1</v>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="AV200" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW200" s="7" t="s">
         <v>1</v>
@@ -24416,7 +24416,7 @@
       </c>
       <c r="AV201" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "PIs_1", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
+        <v>{"id": "PIs_1", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,0]},{"id": "PIs_1.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-400,0,0], "placementRelTo": "PIs_1", "parentObject": "PIs_1"},{"id": "PIs_2", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-1000]},{"id": "PIs_2.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-500,0,0], "placementRelTo": "PIs_2", "parentObject": "PIs_2"},{"id": "PIs_3", "type": "https://w3id.org/ontoeng/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [0,0,-2000]},{"id": "PIs_3.PI_Machine_Static", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcElementAssembly", "representations": [{"file": "Pin_Insertion_Station.glb#PI_Machine_Static", "unit": 1}], "position": [-600,0,0], "placementRelTo": "PIs_3", "parentObject": "PIs_3"}</v>
       </c>
       <c r="AW201" s="7" t="s">
         <v>1</v>
